--- a/Resources/data/NINFA - Retorno Países OCDE y AL_Isa actualización julio.xlsx
+++ b/Resources/data/NINFA - Retorno Países OCDE y AL_Isa actualización julio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="10245"/>
+    <workbookView windowWidth="23115" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -306,13 +306,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,23 +366,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +389,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -404,69 +404,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,22 +441,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -503,13 +496,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,49 +511,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,151 +661,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,21 +728,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +766,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -810,15 +797,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -828,182 +806,190 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,13 +1008,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,13 +1032,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1386,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:P12"/>
+  <dimension ref="A2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="49.9" customHeight="1"/>
@@ -1400,404 +1386,404 @@
     <col min="14" max="14" width="255.708333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="115.15" customHeight="1" spans="1:14">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="25" customHeight="1" spans="1:14">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>23</v>
+      <c r="L5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
+    <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:16">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="E8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="G8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>32</v>
+      <c r="J8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" ht="78.6" customHeight="1" spans="1:14">
-      <c r="A7" s="7" t="s">
+    <row r="9" ht="25" customHeight="1" spans="1:14">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:15">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="G10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:16">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="J10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="27"/>
+      <c r="O10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
